--- a/资料/erp资料.xlsx
+++ b/资料/erp资料.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\xiaoqi\testproject\ginvue\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F6BA9-AA4E-4138-8A07-A19194FDDF2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20570884-36EA-4F39-B1B7-F7F28D6133C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25635" windowHeight="10785" activeTab="2" xr2:uid="{4AE13BF9-EBE1-49D0-A3F8-5967478276D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25635" windowHeight="10785" activeTab="1" xr2:uid="{4AE13BF9-EBE1-49D0-A3F8-5967478276D6}"/>
   </bookViews>
   <sheets>
     <sheet name="erp" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Neudev!</t>
   </si>
@@ -302,13 +302,17 @@
     <t>对方</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>token位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="[$¥-411]#,##0.00;[$¥-411]#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[$¥-411]#,##0.00;[$¥-411]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -386,7 +390,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,6 +493,50 @@
         <a:xfrm>
           <a:off x="0" y="238125"/>
           <a:ext cx="6571429" cy="4561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198625</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>170536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD8244C-D352-4378-A418-64C5176C26AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="16906875"/>
+          <a:ext cx="11200000" cy="7314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,7 +848,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -843,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24722D55-4FC9-4B91-ABED-BC136DE003A1}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1010,6 +1058,14 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D69" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B16696-5457-438B-ADB4-51FE9805E4AE}">
   <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
